--- a/Final_Test_Report.xlsx
+++ b/Final_Test_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FincaPlus-Toorak-QA Automation Intern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F67B728C-BBA0-496C-B0FF-BEDD2C47C364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2A2396-D2A9-42B2-A8AC-8234017B17DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ques 1" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
   <si>
     <t>TCID</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>Ques 2</t>
+  </si>
+  <si>
+    <t>https://github.com/Akash-Rai-27/FincaPlus-Toorak-QA-Automation-assignment.git</t>
   </si>
 </sst>
 </file>
@@ -701,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741AEF38-A079-49C9-8573-AC0A13FC0A47}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -897,6 +900,9 @@
       <c r="A14" s="16" t="s">
         <v>69</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
@@ -915,6 +921,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{52A44826-AE11-4A24-98DA-889024460E9C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -923,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="96" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="96" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1081,6 +1090,9 @@
       <c r="B12" s="16" t="s">
         <v>28</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1088,6 +1100,7 @@
     <hyperlink ref="C3" r:id="rId2" xr:uid="{FD7C9FC6-16FF-4512-8DB9-D4E47FBAD7C4}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{172A3EC6-8816-4016-AA42-E56E268F37FD}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{7F69E147-ADEB-45F0-8D00-664FA0E9CC33}"/>
+    <hyperlink ref="C12" r:id="rId5" xr:uid="{29AF9D05-C563-40FB-B618-719C6D5AC2C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
